--- a/BackTest/2020-01-22 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-22 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>655513.4869781975</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>657032.4869781975</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.796</v>
       </c>
       <c r="J3" t="n">
         <v>5.796</v>
       </c>
-      <c r="K3" t="n">
-        <v>5.796</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>776274.8881781974</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5.799</v>
       </c>
       <c r="J4" t="n">
-        <v>5.799</v>
-      </c>
-      <c r="K4" t="n">
         <v>5.796</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>775028.8881781974</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="J5" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K5" t="n">
         <v>5.796</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,16 +605,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,22 +636,15 @@
         <v>805905.7274781974</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.746</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.746</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -698,22 +671,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>5.746</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -740,22 +704,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>5.746</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -782,16 +737,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,16 +770,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -854,16 +803,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -890,16 +836,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -926,16 +869,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -962,16 +902,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -998,16 +935,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1034,16 +968,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1070,16 +1001,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1106,16 +1034,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1142,16 +1067,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1178,16 +1100,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1214,16 +1133,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1250,16 +1166,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1286,16 +1199,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1322,16 +1232,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1358,16 +1265,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1394,16 +1298,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1430,16 +1331,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1466,16 +1364,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1502,16 +1397,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1538,16 +1430,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1574,16 +1463,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1610,16 +1496,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1646,16 +1529,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1682,16 +1562,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1718,16 +1595,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1754,16 +1628,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1790,16 +1661,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1826,16 +1694,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1862,16 +1727,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1898,16 +1760,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1934,16 +1793,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1970,16 +1826,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2006,16 +1859,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2042,16 +1892,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2078,16 +1925,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2114,16 +1958,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2150,16 +1991,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2186,16 +2024,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2222,16 +2057,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2258,16 +2090,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2294,16 +2123,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2330,16 +2156,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2366,16 +2189,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2402,16 +2222,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2438,16 +2255,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2474,16 +2288,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2510,16 +2321,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2546,16 +2354,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2582,16 +2387,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2618,16 +2420,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2654,16 +2453,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2690,16 +2486,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2726,16 +2519,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2762,16 +2552,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2798,16 +2585,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2834,16 +2618,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2870,16 +2651,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2906,16 +2684,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2942,16 +2717,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2978,16 +2750,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3014,16 +2783,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3050,16 +2816,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3086,16 +2849,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3122,16 +2882,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3158,16 +2915,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3194,16 +2948,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3230,16 +2981,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3266,16 +3014,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3302,16 +3047,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3338,16 +3080,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3374,16 +3113,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3410,16 +3146,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3446,16 +3179,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3482,16 +3212,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3518,16 +3245,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3554,16 +3278,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3590,16 +3311,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3626,16 +3344,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3662,16 +3377,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3698,16 +3410,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3734,16 +3443,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3770,16 +3476,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3806,16 +3509,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3842,16 +3542,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3878,16 +3575,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3914,16 +3608,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3950,16 +3641,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3984,18 +3672,15 @@
         <v>2862707.07369315</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4022,16 +3707,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4058,16 +3740,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4094,16 +3773,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4130,16 +3806,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4166,16 +3839,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4202,16 +3872,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4238,16 +3905,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4274,16 +3938,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4310,16 +3971,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4344,18 +4002,15 @@
         <v>2895582.618193149</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4382,16 +4037,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4418,16 +4070,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4452,18 +4101,15 @@
         <v>2819363.108193149</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4488,18 +4134,15 @@
         <v>2821002.536293149</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4524,18 +4167,15 @@
         <v>2818570.72559315</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4560,18 +4200,15 @@
         <v>2850207.69559315</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4596,18 +4233,15 @@
         <v>2880207.69559315</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4632,18 +4266,15 @@
         <v>2845707.69559315</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4668,18 +4299,15 @@
         <v>2704207.69559315</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4704,18 +4332,15 @@
         <v>2734207.69559315</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4740,18 +4365,15 @@
         <v>2739301.939097989</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4776,18 +4398,15 @@
         <v>2675125.939697989</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4812,20 +4431,17 @@
         <v>2817625.939697989</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-22 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>655513.4869781975</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>657032.4869781975</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5.796</v>
@@ -521,7 +521,7 @@
         <v>776274.8881781974</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5.799</v>
@@ -562,11 +562,9 @@
         <v>775028.8881781974</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>5.796</v>
       </c>
@@ -3573,7 +3571,7 @@
         <v>2845667.801007987</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3606,7 +3604,7 @@
         <v>2817167.801007987</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3672,7 +3670,7 @@
         <v>2862707.07369315</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3771,7 +3769,7 @@
         <v>2855152.050593149</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3804,7 +3802,7 @@
         <v>2807152.050593149</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3837,7 +3835,7 @@
         <v>2807152.050593149</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3870,7 +3868,7 @@
         <v>2810489.422393149</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3903,7 +3901,7 @@
         <v>2810489.422393149</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4002,7 +4000,7 @@
         <v>2895582.618193149</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4101,7 +4099,7 @@
         <v>2819363.108193149</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4134,7 +4132,7 @@
         <v>2821002.536293149</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4167,7 +4165,7 @@
         <v>2818570.72559315</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4200,7 +4198,7 @@
         <v>2850207.69559315</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4233,7 +4231,7 @@
         <v>2880207.69559315</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4266,7 +4264,7 @@
         <v>2845707.69559315</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4299,7 +4297,7 @@
         <v>2704207.69559315</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4332,7 +4330,7 @@
         <v>2734207.69559315</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4365,7 +4363,7 @@
         <v>2739301.939097989</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4398,7 +4396,7 @@
         <v>2675125.939697989</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4431,7 +4429,7 @@
         <v>2817625.939697989</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4442,6 +4440,6 @@
       <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-22 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,9 +562,11 @@
         <v>775028.8881781974</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.89</v>
+      </c>
       <c r="J5" t="n">
         <v>5.796</v>
       </c>
@@ -634,10 +636,14 @@
         <v>805905.7274781974</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.746</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.746</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -670,8 +676,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5.746</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -703,8 +715,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.746</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -1921,7 +1939,7 @@
         <v>1766407.837707988</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1954,7 +1972,7 @@
         <v>1905981.960307987</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1987,7 +2005,7 @@
         <v>1904044.123407987</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2020,7 +2038,7 @@
         <v>1859233.008007987</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2053,7 +2071,7 @@
         <v>1911210.917907987</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2152,7 +2170,7 @@
         <v>1926319.909307987</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2185,7 +2203,7 @@
         <v>1923720.082807987</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3571,7 +3589,7 @@
         <v>2845667.801007987</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3604,7 +3622,7 @@
         <v>2817167.801007987</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3670,7 +3688,7 @@
         <v>2862707.07369315</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3769,7 +3787,7 @@
         <v>2855152.050593149</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3802,7 +3820,7 @@
         <v>2807152.050593149</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3835,7 +3853,7 @@
         <v>2807152.050593149</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3868,7 +3886,7 @@
         <v>2810489.422393149</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3901,7 +3919,7 @@
         <v>2810489.422393149</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4099,7 +4117,7 @@
         <v>2819363.108193149</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4165,7 +4183,7 @@
         <v>2818570.72559315</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4198,7 +4216,7 @@
         <v>2850207.69559315</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4231,7 +4249,7 @@
         <v>2880207.69559315</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4264,7 +4282,7 @@
         <v>2845707.69559315</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4315,7 @@
         <v>2704207.69559315</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4348,7 @@
         <v>2734207.69559315</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4363,7 +4381,7 @@
         <v>2739301.939097989</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4396,7 +4414,7 @@
         <v>2675125.939697989</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4429,7 +4447,7 @@
         <v>2817625.939697989</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4440,6 +4458,6 @@
       <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-22 BackTest ZIL.xlsx
@@ -712,9 +712,11 @@
         <v>811104.3164781975</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.761</v>
+      </c>
       <c r="J9" t="n">
         <v>5.746</v>
       </c>
@@ -1939,7 +1941,7 @@
         <v>1766407.837707988</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1972,7 +1974,7 @@
         <v>1905981.960307987</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2005,7 +2007,7 @@
         <v>1904044.123407987</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2038,7 +2040,7 @@
         <v>1859233.008007987</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2071,7 +2073,7 @@
         <v>1911210.917907987</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2170,7 +2172,7 @@
         <v>1926319.909307987</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2203,7 +2205,7 @@
         <v>1923720.082807987</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3523,7 +3525,7 @@
         <v>2842880.784307987</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3556,7 +3558,7 @@
         <v>2851024.106707987</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3589,7 +3591,7 @@
         <v>2845667.801007987</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3688,7 +3690,7 @@
         <v>2862707.07369315</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3721,7 +3723,7 @@
         <v>2857729.46599315</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3754,7 +3756,7 @@
         <v>2856544.875393149</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3787,7 +3789,7 @@
         <v>2855152.050593149</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3820,7 +3822,7 @@
         <v>2807152.050593149</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3886,7 +3888,7 @@
         <v>2810489.422393149</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3952,7 +3954,7 @@
         <v>2895711.938093149</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3985,7 +3987,7 @@
         <v>2900551.938093149</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4018,7 +4020,7 @@
         <v>2895582.618193149</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4051,7 +4053,7 @@
         <v>2945582.618193149</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4084,7 +4086,7 @@
         <v>2825582.618193149</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4117,7 +4119,7 @@
         <v>2819363.108193149</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4381,7 +4383,7 @@
         <v>2739301.939097989</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4414,7 +4416,7 @@
         <v>2675125.939697989</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4447,7 +4449,7 @@
         <v>2817625.939697989</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>

--- a/BackTest/2020-01-22 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-22 BackTest ZIL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>74999</v>
       </c>
       <c r="G2" t="n">
-        <v>655513.4869781975</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>1519</v>
       </c>
       <c r="G3" t="n">
-        <v>657032.4869781975</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5.796</v>
       </c>
       <c r="I3" t="n">
         <v>5.796</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.796</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,21 @@
         <v>119242.4012</v>
       </c>
       <c r="G4" t="n">
-        <v>776274.8881781974</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>5.799</v>
-      </c>
-      <c r="J4" t="n">
         <v>5.796</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +543,21 @@
         <v>1246</v>
       </c>
       <c r="G5" t="n">
-        <v>775028.8881781974</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J5" t="n">
         <v>5.796</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +579,15 @@
         <v>1280.3834</v>
       </c>
       <c r="G6" t="n">
-        <v>773748.5047781974</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,22 +609,15 @@
         <v>32157.2227</v>
       </c>
       <c r="G7" t="n">
-        <v>805905.7274781974</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.746</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.746</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -670,24 +639,15 @@
         <v>24547.1867</v>
       </c>
       <c r="G8" t="n">
-        <v>781358.5407781975</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>5.746</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -709,26 +669,15 @@
         <v>29745.7757</v>
       </c>
       <c r="G9" t="n">
-        <v>811104.3164781975</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.761</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.746</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,18 +699,15 @@
         <v>54004.1767</v>
       </c>
       <c r="G10" t="n">
-        <v>865108.4931781974</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,18 +729,15 @@
         <v>6333.4413</v>
       </c>
       <c r="G11" t="n">
-        <v>858775.0518781975</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +759,15 @@
         <v>223509.2203</v>
       </c>
       <c r="G12" t="n">
-        <v>635265.8315781974</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -849,18 +789,15 @@
         <v>16632.4374</v>
       </c>
       <c r="G13" t="n">
-        <v>651898.2689781975</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,18 +819,15 @@
         <v>11160.9382</v>
       </c>
       <c r="G14" t="n">
-        <v>640737.3307781975</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -915,18 +849,15 @@
         <v>2590</v>
       </c>
       <c r="G15" t="n">
-        <v>643327.3307781975</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -948,18 +879,15 @@
         <v>42370.826</v>
       </c>
       <c r="G16" t="n">
-        <v>643327.3307781975</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -981,18 +909,15 @@
         <v>5518.2616</v>
       </c>
       <c r="G17" t="n">
-        <v>637809.0691781975</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1014,18 +939,15 @@
         <v>17559.8212</v>
       </c>
       <c r="G18" t="n">
-        <v>620249.2479781975</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1047,18 +969,15 @@
         <v>1492.606</v>
       </c>
       <c r="G19" t="n">
-        <v>621741.8539781976</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1080,18 +999,15 @@
         <v>918.028</v>
       </c>
       <c r="G20" t="n">
-        <v>622659.8819781976</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,18 +1029,15 @@
         <v>1244</v>
       </c>
       <c r="G21" t="n">
-        <v>622659.8819781976</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1146,18 +1059,15 @@
         <v>22601.8321</v>
       </c>
       <c r="G22" t="n">
-        <v>645261.7140781976</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1179,18 +1089,15 @@
         <v>293500</v>
       </c>
       <c r="G23" t="n">
-        <v>351761.7140781976</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1212,18 +1119,15 @@
         <v>5224.0981</v>
       </c>
       <c r="G24" t="n">
-        <v>356985.8121781976</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1245,18 +1149,15 @@
         <v>42551.6211</v>
       </c>
       <c r="G25" t="n">
-        <v>356985.8121781976</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1278,18 +1179,15 @@
         <v>1431</v>
       </c>
       <c r="G26" t="n">
-        <v>356985.8121781976</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1311,18 +1209,15 @@
         <v>6193.5473</v>
       </c>
       <c r="G27" t="n">
-        <v>350792.2648781976</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1344,18 +1239,15 @@
         <v>1978.8512</v>
       </c>
       <c r="G28" t="n">
-        <v>352771.1160781976</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1377,18 +1269,15 @@
         <v>57500</v>
       </c>
       <c r="G29" t="n">
-        <v>295271.1160781976</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1410,18 +1299,15 @@
         <v>2751</v>
       </c>
       <c r="G30" t="n">
-        <v>298022.1160781976</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1443,18 +1329,15 @@
         <v>9695.807500000001</v>
       </c>
       <c r="G31" t="n">
-        <v>298022.1160781976</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1476,18 +1359,15 @@
         <v>1060444.7196</v>
       </c>
       <c r="G32" t="n">
-        <v>298022.1160781976</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1509,18 +1389,15 @@
         <v>807013.4249</v>
       </c>
       <c r="G33" t="n">
-        <v>1105035.540978197</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1542,18 +1419,15 @@
         <v>15434.9141</v>
       </c>
       <c r="G34" t="n">
-        <v>1105035.540978197</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1575,18 +1449,15 @@
         <v>1294</v>
       </c>
       <c r="G35" t="n">
-        <v>1105035.540978197</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1608,18 +1479,15 @@
         <v>67430.68060000001</v>
       </c>
       <c r="G36" t="n">
-        <v>1037604.860378198</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1641,18 +1509,15 @@
         <v>23135.89022979005</v>
       </c>
       <c r="G37" t="n">
-        <v>1060740.750607988</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1674,18 +1539,15 @@
         <v>4389.3212</v>
       </c>
       <c r="G38" t="n">
-        <v>1056351.429407988</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1707,18 +1569,15 @@
         <v>969616.856</v>
       </c>
       <c r="G39" t="n">
-        <v>2025968.285407988</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1740,18 +1599,15 @@
         <v>18922.4464</v>
       </c>
       <c r="G40" t="n">
-        <v>2044890.731807988</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1773,18 +1629,15 @@
         <v>17282.4729</v>
       </c>
       <c r="G41" t="n">
-        <v>2062173.204707988</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1806,18 +1659,15 @@
         <v>91821.0972</v>
       </c>
       <c r="G42" t="n">
-        <v>2153994.301907988</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1839,18 +1689,15 @@
         <v>3000</v>
       </c>
       <c r="G43" t="n">
-        <v>2150994.301907988</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1872,18 +1719,15 @@
         <v>4106.7679</v>
       </c>
       <c r="G44" t="n">
-        <v>2155101.069807988</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1905,18 +1749,15 @@
         <v>382693.2321</v>
       </c>
       <c r="G45" t="n">
-        <v>1772407.837707988</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1938,18 +1779,15 @@
         <v>6000</v>
       </c>
       <c r="G46" t="n">
-        <v>1766407.837707988</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1971,18 +1809,15 @@
         <v>139574.1226</v>
       </c>
       <c r="G47" t="n">
-        <v>1905981.960307987</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2004,18 +1839,15 @@
         <v>1937.8369</v>
       </c>
       <c r="G48" t="n">
-        <v>1904044.123407987</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2037,18 +1869,15 @@
         <v>44811.1154</v>
       </c>
       <c r="G49" t="n">
-        <v>1859233.008007987</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2070,18 +1899,15 @@
         <v>51977.9099</v>
       </c>
       <c r="G50" t="n">
-        <v>1911210.917907987</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2103,18 +1929,15 @@
         <v>1702.2547</v>
       </c>
       <c r="G51" t="n">
-        <v>1909508.663207988</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2136,18 +1959,15 @@
         <v>5158.6105</v>
       </c>
       <c r="G52" t="n">
-        <v>1914667.273707988</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2169,18 +1989,15 @@
         <v>11652.6356</v>
       </c>
       <c r="G53" t="n">
-        <v>1926319.909307987</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2202,18 +2019,15 @@
         <v>2599.8265</v>
       </c>
       <c r="G54" t="n">
-        <v>1923720.082807987</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2235,18 +2049,15 @@
         <v>15741.3886</v>
       </c>
       <c r="G55" t="n">
-        <v>1939461.471407987</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2268,18 +2079,15 @@
         <v>5078.7086</v>
       </c>
       <c r="G56" t="n">
-        <v>1934382.762807987</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2301,18 +2109,15 @@
         <v>30000</v>
       </c>
       <c r="G57" t="n">
-        <v>1964382.762807987</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2334,18 +2139,15 @@
         <v>6929.2917</v>
       </c>
       <c r="G58" t="n">
-        <v>1957453.471107987</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2367,18 +2169,15 @@
         <v>35712.1292</v>
       </c>
       <c r="G59" t="n">
-        <v>1993165.600307988</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2400,18 +2199,15 @@
         <v>181771.6226</v>
       </c>
       <c r="G60" t="n">
-        <v>1811393.977707988</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2433,18 +2229,15 @@
         <v>48451.2592</v>
       </c>
       <c r="G61" t="n">
-        <v>1859845.236907988</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2466,18 +2259,15 @@
         <v>3473.9054</v>
       </c>
       <c r="G62" t="n">
-        <v>1863319.142307988</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2499,18 +2289,15 @@
         <v>83421.22560000001</v>
       </c>
       <c r="G63" t="n">
-        <v>1946740.367907988</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2532,18 +2319,15 @@
         <v>3476.4544</v>
       </c>
       <c r="G64" t="n">
-        <v>1943263.913507988</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2565,18 +2349,15 @@
         <v>15688.4158</v>
       </c>
       <c r="G65" t="n">
-        <v>1927575.497707988</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2598,18 +2379,15 @@
         <v>315495.7365</v>
       </c>
       <c r="G66" t="n">
-        <v>2243071.234207988</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2631,18 +2409,15 @@
         <v>12000</v>
       </c>
       <c r="G67" t="n">
-        <v>2231071.234207988</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2664,18 +2439,15 @@
         <v>33980.5178</v>
       </c>
       <c r="G68" t="n">
-        <v>2197090.716407988</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2697,18 +2469,15 @@
         <v>58282.9518</v>
       </c>
       <c r="G69" t="n">
-        <v>2255373.668207988</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2730,18 +2499,15 @@
         <v>159870.6667</v>
       </c>
       <c r="G70" t="n">
-        <v>2415244.334907988</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2763,18 +2529,15 @@
         <v>130808.4881</v>
       </c>
       <c r="G71" t="n">
-        <v>2546052.823007988</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2796,18 +2559,15 @@
         <v>3749.175</v>
       </c>
       <c r="G72" t="n">
-        <v>2542303.648007988</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2829,18 +2589,15 @@
         <v>120000</v>
       </c>
       <c r="G73" t="n">
-        <v>2422303.648007988</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2862,18 +2619,15 @@
         <v>35689.6148</v>
       </c>
       <c r="G74" t="n">
-        <v>2457993.262807988</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2895,18 +2649,15 @@
         <v>146218.3265</v>
       </c>
       <c r="G75" t="n">
-        <v>2604211.589307988</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2928,18 +2679,15 @@
         <v>35027.5097</v>
       </c>
       <c r="G76" t="n">
-        <v>2569184.079607988</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2961,18 +2709,15 @@
         <v>32618.6789</v>
       </c>
       <c r="G77" t="n">
-        <v>2601802.758507988</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2994,18 +2739,15 @@
         <v>9987.320599999999</v>
       </c>
       <c r="G78" t="n">
-        <v>2591815.437907988</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3027,18 +2769,15 @@
         <v>102802.7634</v>
       </c>
       <c r="G79" t="n">
-        <v>2694618.201307988</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3060,18 +2799,15 @@
         <v>3730.5699</v>
       </c>
       <c r="G80" t="n">
-        <v>2698348.771207988</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3093,18 +2829,15 @@
         <v>3000</v>
       </c>
       <c r="G81" t="n">
-        <v>2698348.771207988</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3126,18 +2859,15 @@
         <v>6000</v>
       </c>
       <c r="G82" t="n">
-        <v>2692348.771207988</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3159,18 +2889,15 @@
         <v>4871.9793</v>
       </c>
       <c r="G83" t="n">
-        <v>2697220.750507988</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3192,18 +2919,15 @@
         <v>6858.123</v>
       </c>
       <c r="G84" t="n">
-        <v>2697220.750507988</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3225,18 +2949,15 @@
         <v>1006.8675</v>
       </c>
       <c r="G85" t="n">
-        <v>2696213.883007988</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3258,18 +2979,15 @@
         <v>12107.4061</v>
       </c>
       <c r="G86" t="n">
-        <v>2708321.289107988</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3291,18 +3009,15 @@
         <v>30000</v>
       </c>
       <c r="G87" t="n">
-        <v>2738321.289107988</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3324,18 +3039,15 @@
         <v>60674.4571</v>
       </c>
       <c r="G88" t="n">
-        <v>2677646.832007987</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3357,18 +3069,15 @@
         <v>43953.2438</v>
       </c>
       <c r="G89" t="n">
-        <v>2721600.075807987</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3390,18 +3099,15 @@
         <v>32235.4269</v>
       </c>
       <c r="G90" t="n">
-        <v>2753835.502707987</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3423,18 +3129,15 @@
         <v>4429.2865</v>
       </c>
       <c r="G91" t="n">
-        <v>2758264.789207987</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3456,18 +3159,15 @@
         <v>21820.1009</v>
       </c>
       <c r="G92" t="n">
-        <v>2780084.890107987</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3489,18 +3189,15 @@
         <v>67850.1568</v>
       </c>
       <c r="G93" t="n">
-        <v>2847935.046907987</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3522,18 +3219,15 @@
         <v>5054.2626</v>
       </c>
       <c r="G94" t="n">
-        <v>2842880.784307987</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3555,18 +3249,15 @@
         <v>8143.3224</v>
       </c>
       <c r="G95" t="n">
-        <v>2851024.106707987</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3588,18 +3279,15 @@
         <v>5356.3057</v>
       </c>
       <c r="G96" t="n">
-        <v>2845667.801007987</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3621,18 +3309,15 @@
         <v>28500</v>
       </c>
       <c r="G97" t="n">
-        <v>2817167.801007987</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3654,18 +3339,15 @@
         <v>5590.5581</v>
       </c>
       <c r="G98" t="n">
-        <v>2822758.359107987</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3687,18 +3369,15 @@
         <v>39948.71458516281</v>
       </c>
       <c r="G99" t="n">
-        <v>2862707.07369315</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3720,18 +3399,15 @@
         <v>4977.6077</v>
       </c>
       <c r="G100" t="n">
-        <v>2857729.46599315</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3753,18 +3429,15 @@
         <v>1184.5906</v>
       </c>
       <c r="G101" t="n">
-        <v>2856544.875393149</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3786,18 +3459,15 @@
         <v>1392.8248</v>
       </c>
       <c r="G102" t="n">
-        <v>2855152.050593149</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3819,18 +3489,15 @@
         <v>48000</v>
       </c>
       <c r="G103" t="n">
-        <v>2807152.050593149</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3852,18 +3519,15 @@
         <v>15971.4608</v>
       </c>
       <c r="G104" t="n">
-        <v>2807152.050593149</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3885,18 +3549,15 @@
         <v>3337.3718</v>
       </c>
       <c r="G105" t="n">
-        <v>2810489.422393149</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3918,18 +3579,15 @@
         <v>138.2046</v>
       </c>
       <c r="G106" t="n">
-        <v>2810489.422393149</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3951,18 +3609,15 @@
         <v>85222.5157</v>
       </c>
       <c r="G107" t="n">
-        <v>2895711.938093149</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3984,18 +3639,15 @@
         <v>4840</v>
       </c>
       <c r="G108" t="n">
-        <v>2900551.938093149</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4017,18 +3669,15 @@
         <v>4969.3199</v>
       </c>
       <c r="G109" t="n">
-        <v>2895582.618193149</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4050,18 +3699,15 @@
         <v>50000</v>
       </c>
       <c r="G110" t="n">
-        <v>2945582.618193149</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4083,18 +3729,15 @@
         <v>120000</v>
       </c>
       <c r="G111" t="n">
-        <v>2825582.618193149</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4116,18 +3759,15 @@
         <v>6219.51</v>
       </c>
       <c r="G112" t="n">
-        <v>2819363.108193149</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4149,18 +3789,15 @@
         <v>1639.4281</v>
       </c>
       <c r="G113" t="n">
-        <v>2821002.536293149</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4182,18 +3819,15 @@
         <v>2431.8107</v>
       </c>
       <c r="G114" t="n">
-        <v>2818570.72559315</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4215,18 +3849,15 @@
         <v>31636.97</v>
       </c>
       <c r="G115" t="n">
-        <v>2850207.69559315</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4248,18 +3879,15 @@
         <v>30000</v>
       </c>
       <c r="G116" t="n">
-        <v>2880207.69559315</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4281,18 +3909,15 @@
         <v>34500</v>
       </c>
       <c r="G117" t="n">
-        <v>2845707.69559315</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4314,18 +3939,15 @@
         <v>141500</v>
       </c>
       <c r="G118" t="n">
-        <v>2704207.69559315</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4347,18 +3969,15 @@
         <v>30000</v>
       </c>
       <c r="G119" t="n">
-        <v>2734207.69559315</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4380,18 +3999,15 @@
         <v>5094.243504839531</v>
       </c>
       <c r="G120" t="n">
-        <v>2739301.939097989</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4413,18 +4029,15 @@
         <v>64175.9994</v>
       </c>
       <c r="G121" t="n">
-        <v>2675125.939697989</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4446,18 +4059,15 @@
         <v>142500</v>
       </c>
       <c r="G122" t="n">
-        <v>2817625.939697989</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
